--- a/biology/Zoologie/Harttiella_lucifer/Harttiella_lucifer.xlsx
+++ b/biology/Zoologie/Harttiella_lucifer/Harttiella_lucifer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Harttiella lucifer est une espèce de poissons-chats d'eau douce, de la famille des Loricariidae. Cette espèce est endémique du centre de la Guyane française, du mont Galbao (d) et du massif Lucifer (d).
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Harttiella lucifer a été décrite en 2012 par Raphaël Covain et Sonia Fisch-Muller (d)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Harttiella lucifer a été décrite en 2012 par Raphaël Covain et Sonia Fisch-Muller (d),.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, lucifer, fait référence à sa localité type, le massif Lucifer[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, lucifer, fait référence à sa localité type, le massif Lucifer.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Raphaël Covain, Sonia Fisch-Muller, Juan I. Montoya-Burgos, Jan H. Mol, Pierre-Yves Le Bail et Stéphane Dray, « The Harttiini (Siluriformes, Loricariidae) from the Guianas: a multi-table approach to assess their diversity, evolution, and distribution », Cybium, Muséum national d'histoire naturelle, vol. 36, no 1,‎ 2012, p. 115-161 (ISSN 0399-0974 et 2101-0315, DOI 10.26028/CYBIUM/2012-361-010, lire en ligne)</t>
         </is>
